--- a/05. Tool/Tool Checklist.xlsx
+++ b/05. Tool/Tool Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hi-Tech\Repo_STM\hitech_stm32_basic\tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hi-Tech\Repo_STM\hitech_stm32_basic\05. Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA2BF6-CAC3-4DD5-8E8B-61B70C966A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA10D6-AF25-4302-9E40-83B7CA9A577A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2317254C-4A0E-4EE8-B3B6-2266DD2A6CF9}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{2317254C-4A0E-4EE8-B3B6-2266DD2A6CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Seq #</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>STM32CubeMX</t>
-  </si>
-  <si>
     <t>6.0</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>https://www.sublimetext.com/3</t>
   </si>
   <si>
-    <t>http://www2.keil.com/mdk5/uvision/</t>
-  </si>
-  <si>
     <t>https://www.st.com/en/development-tools/stm32cubemx.html</t>
   </si>
   <si>
@@ -102,44 +96,30 @@
     <t>Freeware</t>
   </si>
   <si>
-    <t>Freeware
-Xem hướng dẫn cài Firmware Pack trong Tab "Hướng dẫn"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Need Cracked
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liên hệ riêng với Lecturer để lấy file "thuốc"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Xem hướng dẫn cài Firmware Pack trong Tab "Hướng dẫn"</t>
-    </r>
+    <t>Cài thêm JRE  nếu yêu cầu</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/s!AjRP3z7340A0wE_DJuNUJERCm_7n?e=bWBmth
+https://www.oracle.com/java/technologies/javase-jre8-downloads.html</t>
+  </si>
+  <si>
+    <t>https://www.keil.com/dd2/Pack/</t>
+  </si>
+  <si>
+    <t>Keil-C F4 package</t>
+  </si>
+  <si>
+    <t>Chọn STM32F4 Series và download</t>
+  </si>
+  <si>
+    <t>STM32CubeIDE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,16 +144,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <strike/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -224,6 +218,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,20 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906CA191-693D-47C2-BFE9-6BC6F92D24A7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,121 +573,136 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A6" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" ref="A6:A7" si="0">A5+1</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{5DE84217-95C8-44D4-BB4D-FAD3ED13A5D7}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{A8DCBBEC-F67A-4C22-8F5C-BB17258C2734}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{5DE84217-95C8-44D4-BB4D-FAD3ED13A5D7}"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://www2.keil.com/mdk5/uvision/" xr:uid="{A8DCBBEC-F67A-4C22-8F5C-BB17258C2734}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{FABB2C7A-D6DC-456B-98A0-2572BABD7D09}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{3C629E59-2CE6-4452-8B0E-84E065A0E1BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/05. Tool/Tool Checklist.xlsx
+++ b/05. Tool/Tool Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hi-Tech\Repo_STM\hitech_stm32_basic\05. Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA10D6-AF25-4302-9E40-83B7CA9A577A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917B4CEA-9835-43C5-BC9C-A31A2AB3680A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{2317254C-4A0E-4EE8-B3B6-2266DD2A6CF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2317254C-4A0E-4EE8-B3B6-2266DD2A6CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Seq #</t>
   </si>
@@ -48,15 +48,6 @@
     <t>Tool hỗ trợ cấu hình STM32 và tạo project tự động</t>
   </si>
   <si>
-    <t>Keil-C</t>
-  </si>
-  <si>
-    <t>&gt; 5.0</t>
-  </si>
-  <si>
-    <t>Tool Build và Debug code</t>
-  </si>
-  <si>
     <t>Sublime Text 3</t>
   </si>
   <si>
@@ -94,22 +85,6 @@
   </si>
   <si>
     <t>Freeware</t>
-  </si>
-  <si>
-    <t>Cài thêm JRE  nếu yêu cầu</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/s!AjRP3z7340A0wE_DJuNUJERCm_7n?e=bWBmth
-https://www.oracle.com/java/technologies/javase-jre8-downloads.html</t>
-  </si>
-  <si>
-    <t>https://www.keil.com/dd2/Pack/</t>
-  </si>
-  <si>
-    <t>Keil-C F4 package</t>
-  </si>
-  <si>
-    <t>Chọn STM32F4 Series và download</t>
   </si>
   <si>
     <t>STM32CubeIDE</t>
@@ -119,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,23 +111,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -209,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -218,15 +176,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -543,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906CA191-693D-47C2-BFE9-6BC6F92D24A7}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -583,8 +532,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>28</v>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -593,116 +542,78 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <f>A2+1</f>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A5" si="0">A3+1</f>
+        <v>3</v>
+      </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" ref="A6:A7" si="0">A5+1</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{5DE84217-95C8-44D4-BB4D-FAD3ED13A5D7}"/>
-    <hyperlink ref="F3" r:id="rId2" display="http://www2.keil.com/mdk5/uvision/" xr:uid="{A8DCBBEC-F67A-4C22-8F5C-BB17258C2734}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{FABB2C7A-D6DC-456B-98A0-2572BABD7D09}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{3C629E59-2CE6-4452-8B0E-84E065A0E1BC}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{5DE84217-95C8-44D4-BB4D-FAD3ED13A5D7}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{FABB2C7A-D6DC-456B-98A0-2572BABD7D09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>